--- a/python_fun/python mini works/PY-Happy birthday text automation/birthdays.xlsx
+++ b/python_fun/python mini works/PY-Happy birthday text automation/birthdays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\vroom-vroom\python_fun\python mini works\PY-Happy birthday text automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB2713-F7F1-402C-9D81-04C35298A745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC37EA7-BE6B-4464-A5CE-F3EFEF00F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="36" windowWidth="17856" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45031</v>
+        <v>45305</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>"+919994198795"</f>
